--- a/template_test/Ohjeita/suhteet.xlsx
+++ b/template_test/Ohjeita/suhteet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01 naamisuvanto\naamisuvanto\template_test\Ohjeita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8FD1BD-2DA5-4199-AC39-04E9CFC1F876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4232590B-9170-468A-9997-439D6E1BA2DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2EDF11F-36AC-4964-B578-00C9DFD6AD7D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
   <si>
     <t>logo_uustalo2.gif</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>vanha 865</t>
+  </si>
+  <si>
+    <t>padding-left</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
   <dimension ref="D2:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,17 +974,17 @@
     </row>
     <row r="45" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
       </c>
       <c r="H45">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="K45" t="str">
         <f>CONCATENATE("/* ",D45," ",H45,", ",H46,", ",H47,", ",H48," */")</f>
-        <v>/* height 180, 144, 108, 72 */</v>
+        <v>/* padding-left 81, 64,8, 48,6, 32,4 */</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -993,7 +996,7 @@
       </c>
       <c r="H46" s="1">
         <f>+H45*$J$5</f>
-        <v>144</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="47" spans="4:14" x14ac:dyDescent="0.25">
@@ -1002,7 +1005,7 @@
       </c>
       <c r="H47" s="1">
         <f>+H45*$J$6</f>
-        <v>108</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="48" spans="4:14" x14ac:dyDescent="0.25">
@@ -1011,7 +1014,7 @@
       </c>
       <c r="H48" s="1">
         <f>+H45*$J$7</f>
-        <v>72</v>
+        <v>32.4</v>
       </c>
     </row>
   </sheetData>
